--- a/LP.xlsx
+++ b/LP.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Buidling</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>end</t>
-  </si>
-  <si>
-    <t>operating time</t>
   </si>
   <si>
     <t>Main Academic Building</t>
@@ -226,7 +223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,12 +395,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,16 +658,16 @@
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1230,13 +1221,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G957"/>
+  <dimension ref="A1:E957"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E1" sqref="E1:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="38.8571428571429" style="2" customWidth="1"/>
     <col min="2" max="4" width="13.4285714285714" style="2" customWidth="1"/>
@@ -1257,13 +1248,11 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="B2" s="5">
         <v>227.358</v>
@@ -1274,21 +1263,11 @@
       <c r="D2" s="7">
         <v>0.708333333333333</v>
       </c>
-      <c r="E2" s="4">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2">
-        <f>D2-C2</f>
-        <v>0.375</v>
-      </c>
-      <c r="G2" s="2">
-        <f>F2*24</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:7">
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4">
         <v>0.606</v>
@@ -1299,21 +1278,11 @@
       <c r="D3" s="7">
         <v>0.333333333333333</v>
       </c>
-      <c r="E3" s="4">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2">
-        <f>D3-C3</f>
-        <v>-0.375</v>
-      </c>
-      <c r="G3" s="2">
-        <f>(1+F3)*24</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:7">
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
         <v>1.414</v>
@@ -1324,21 +1293,11 @@
       <c r="D4" s="7">
         <v>0.5</v>
       </c>
-      <c r="E4" s="4">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2">
-        <f>D4-C4</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <f>F4*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4">
         <v>492</v>
@@ -1349,21 +1308,11 @@
       <c r="D5" s="7">
         <v>0.708333333333333</v>
       </c>
-      <c r="E5" s="4">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2">
-        <f>D5-C5</f>
-        <v>0.375</v>
-      </c>
-      <c r="G5" s="2">
-        <f>F5*24</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" ht="24.75" customHeight="1" spans="1:7">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" ht="24.75" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
         <v>7.07</v>
@@ -1374,17 +1323,7 @@
       <c r="D6" s="7">
         <v>0.5</v>
       </c>
-      <c r="E6" s="4">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2">
-        <f>D6-C6</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <f>F6*24</f>
-        <v>0</v>
-      </c>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:5">
       <c r="A7" s="4"/>
